--- a/public/assets/template-file/Template-Import.xlsx
+++ b/public/assets/template-file/Template-Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\laravel 8\lease-sentry\public\assets\template-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E26C969-88B8-4301-A8E0-AC2FC3C72011}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E7CA73-947B-4D0D-A3B3-CA6BB158ADE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6E8FA160-1778-49F3-ACEE-3508D061FD7E}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Sewa</t>
   </si>
   <si>
-    <t>conceptor_id</t>
-  </si>
-  <si>
     <t>Universitas Sriwijaya</t>
   </si>
   <si>
@@ -109,25 +106,61 @@
   </si>
   <si>
     <t>Penghapusan</t>
+  </si>
+  <si>
+    <t>user_id_pkn</t>
+  </si>
+  <si>
+    <t>user_id_penilai</t>
+  </si>
+  <si>
+    <t>Admin_pkn</t>
+  </si>
+  <si>
+    <t>Admin_penilai</t>
+  </si>
+  <si>
+    <t>Agung Fitriandi Nugroho(2)</t>
+  </si>
+  <si>
+    <t>Abdul Rohman Lubis(3)</t>
+  </si>
+  <si>
+    <t>Ruyanto(4)</t>
+  </si>
+  <si>
+    <t>Akhmad Taupikur Rahman(5)</t>
+  </si>
+  <si>
+    <t>Nancy Grace Pasaribu(6)</t>
+  </si>
+  <si>
+    <t>Wiyana(7)</t>
+  </si>
+  <si>
+    <t>Albet Aruan(8)</t>
+  </si>
+  <si>
+    <t>Syamsul Bahri(9)</t>
+  </si>
+  <si>
+    <t>Muhamad Christian(10)</t>
+  </si>
+  <si>
+    <t>Romas Fahdiar(11)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -164,19 +197,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,229 +537,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA541301-E783-42C7-975A-3877C903D0FB}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="33" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="35.42578125" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>28376</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44815</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45280</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45120</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5">
+        <v>32442</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>27579427</v>
+      </c>
+      <c r="R2" s="6">
+        <v>143.99</v>
+      </c>
+      <c r="S2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>28377</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44816</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="I3" s="10">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7">
-        <v>28376</v>
-      </c>
-      <c r="E2" s="7">
-        <v>44815</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8">
-        <v>45280</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J3" s="11">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5">
         <v>45120</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="8">
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45120</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5">
         <v>32442</v>
       </c>
-      <c r="N2" s="6">
-        <v>27579427</v>
-      </c>
-      <c r="O2" s="9">
-        <v>143.99</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="Q3" s="3">
+        <v>177988</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>28378</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44817</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10">
         <v>3</v>
       </c>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="J4" s="11">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45122</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7">
-        <v>28377</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44816</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="N4" s="5">
         <v>45120</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="8">
-        <v>45120</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="8">
+      <c r="O4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5">
         <v>32442</v>
       </c>
-      <c r="N3" s="6">
-        <v>177988</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="6"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7">
-        <v>28378</v>
-      </c>
-      <c r="E4" s="7">
-        <v>44817</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8">
-        <v>45122</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="8">
-        <v>45120</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="8">
-        <v>32442</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="9">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="6">
         <v>466.12</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="9:9" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="9:9" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I18" xr:uid="{77E6598D-751F-400E-B4FF-15BA3DF4C2FD}">
+      <formula1>"2,3,4,5,6,7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J16" xr:uid="{366C8AF3-3B57-46DD-BA2E-0C61D258FE3E}">
+      <formula1>"8,9,10,11"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/template-file/Template-Import.xlsx
+++ b/public/assets/template-file/Template-Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\laravel 8\lease-sentry\public\assets\template-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E7CA73-947B-4D0D-A3B3-CA6BB158ADE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7491CCFA-B558-494C-AB52-CAA0E28199CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6E8FA160-1778-49F3-ACEE-3508D061FD7E}"/>
   </bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA541301-E783-42C7-975A-3877C903D0FB}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
